--- a/GR4j模型/data/demo_124002A/GR4J_opt_log.xlsx
+++ b/GR4j模型/data/demo_124002A/GR4J_opt_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,1022 +462,2102 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8146480138477509</v>
+        <v>0.8050105471159112</v>
       </c>
       <c r="C2" t="n">
-        <v>297.9156441323212</v>
+        <v>297.2403543730545</v>
       </c>
       <c r="D2" t="n">
-        <v>2.240320931590245</v>
+        <v>1.236020659729516</v>
       </c>
       <c r="E2" t="n">
-        <v>25.17181889761002</v>
+        <v>23.25246460597183</v>
       </c>
       <c r="F2" t="n">
-        <v>1.081731213388056</v>
+        <v>1.011565071848761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8069696295685125</v>
+        <v>0.8037841879841298</v>
       </c>
       <c r="C3" t="n">
-        <v>297.6862792395308</v>
+        <v>90.47788875423075</v>
       </c>
       <c r="D3" t="n">
-        <v>1.236445722289861</v>
+        <v>0.3018489399109887</v>
       </c>
       <c r="E3" t="n">
-        <v>23.54004707687507</v>
+        <v>206.1673792801141</v>
       </c>
       <c r="F3" t="n">
-        <v>1.086989028876783</v>
+        <v>1.013868273715116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7998639076728087</v>
+        <v>0.7954136438318288</v>
       </c>
       <c r="C4" t="n">
-        <v>305.2935530492109</v>
+        <v>41.74491122798416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4791526565846285</v>
+        <v>-3.314222482621134</v>
       </c>
       <c r="E4" t="n">
-        <v>20.42773304161344</v>
+        <v>151.1320757191687</v>
       </c>
       <c r="F4" t="n">
-        <v>1.032111430473721</v>
+        <v>1.129493088276125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7890083624155327</v>
+        <v>0.7706785316596321</v>
       </c>
       <c r="C5" t="n">
-        <v>305.0769603116435</v>
+        <v>300.4212028284583</v>
       </c>
       <c r="D5" t="n">
-        <v>2.649865267596919</v>
+        <v>-0.4395687603324507</v>
       </c>
       <c r="E5" t="n">
-        <v>21.13586182784111</v>
+        <v>73.45052260986307</v>
       </c>
       <c r="F5" t="n">
-        <v>1.178323913218319</v>
+        <v>1.037652214238805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7885394334703213</v>
+        <v>0.7686254311569722</v>
       </c>
       <c r="C6" t="n">
-        <v>306.5226699127251</v>
+        <v>298.8807679327207</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4050667158780152</v>
+        <v>0.9273403588113265</v>
       </c>
       <c r="E6" t="n">
-        <v>22.21088065996611</v>
+        <v>73.63179721113045</v>
       </c>
       <c r="F6" t="n">
-        <v>1.021861378143516</v>
+        <v>1.09505888383073</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7263325594254177</v>
+        <v>0.732431188607477</v>
       </c>
       <c r="C7" t="n">
-        <v>304.8717261342691</v>
+        <v>148.4499827945048</v>
       </c>
       <c r="D7" t="n">
-        <v>2.892299855244925</v>
+        <v>-0.4064630916611849</v>
       </c>
       <c r="E7" t="n">
-        <v>22.72535790187262</v>
+        <v>213.95863711584</v>
       </c>
       <c r="F7" t="n">
-        <v>1.326510286064516</v>
+        <v>1.099565701558039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7143070796709772</v>
+        <v>0.7236067739651648</v>
       </c>
       <c r="C8" t="n">
-        <v>301.9117851119812</v>
+        <v>145.2960968366602</v>
       </c>
       <c r="D8" t="n">
-        <v>3.052327502763118</v>
+        <v>-1.896677981277958</v>
       </c>
       <c r="E8" t="n">
-        <v>21.16262835803967</v>
+        <v>215.8248020155376</v>
       </c>
       <c r="F8" t="n">
-        <v>1.355925823216483</v>
+        <v>1.105129209248212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6995649836387379</v>
+        <v>0.7201270634921114</v>
       </c>
       <c r="C9" t="n">
-        <v>299.3204799407104</v>
+        <v>253.317424764974</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.071138124224986</v>
+        <v>2.462285987038213</v>
       </c>
       <c r="E9" t="n">
-        <v>21.18907597757439</v>
+        <v>164.5811781243037</v>
       </c>
       <c r="F9" t="n">
-        <v>1.268347318452795</v>
+        <v>1.111878321930847</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6976040274491551</v>
+        <v>0.7003886289462384</v>
       </c>
       <c r="C10" t="n">
-        <v>296.4426876052311</v>
+        <v>119.7230841087859</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.516884000015934</v>
+        <v>-1.194071943798042</v>
       </c>
       <c r="E10" t="n">
-        <v>24.0049373870346</v>
+        <v>212.5427349698344</v>
       </c>
       <c r="F10" t="n">
-        <v>1.319018892177762</v>
+        <v>1.181707595244182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6720153484585856</v>
+        <v>0.7001544106591928</v>
       </c>
       <c r="C11" t="n">
-        <v>307.7979540731843</v>
+        <v>91.3310335963198</v>
       </c>
       <c r="D11" t="n">
-        <v>3.369642717535495</v>
+        <v>-0.5452201380098947</v>
       </c>
       <c r="E11" t="n">
-        <v>21.73939214976505</v>
+        <v>206.7567533745163</v>
       </c>
       <c r="F11" t="n">
-        <v>1.449556549943581</v>
+        <v>1.218940841243216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6702648578689452</v>
+        <v>0.698275736309123</v>
       </c>
       <c r="C12" t="n">
-        <v>307.5580006022037</v>
+        <v>147.4199180659963</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.787685844709112</v>
+        <v>-2.024740793953486</v>
       </c>
       <c r="E12" t="n">
-        <v>24.02136779552717</v>
+        <v>215.5215623287521</v>
       </c>
       <c r="F12" t="n">
-        <v>1.369463584375004</v>
+        <v>1.149702065549915</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>0.66670817599746</v>
+        <v>0.6713681229280914</v>
       </c>
       <c r="C13" t="n">
-        <v>297.7451832447761</v>
+        <v>297.9403136333176</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9829204409794228</v>
+        <v>-0.4717915439882354</v>
       </c>
       <c r="E13" t="n">
-        <v>20.04346243059106</v>
+        <v>73.34703666618884</v>
       </c>
       <c r="F13" t="n">
-        <v>1.45349885894776</v>
+        <v>1.297152233627318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6507484177321559</v>
+        <v>0.66670817599746</v>
       </c>
       <c r="C14" t="n">
-        <v>296.7733898357082</v>
+        <v>297.7451832447761</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.657971867441909</v>
+        <v>0.9829204409794228</v>
       </c>
       <c r="E14" t="n">
-        <v>24.50284766269652</v>
+        <v>20.04346243059106</v>
       </c>
       <c r="F14" t="n">
-        <v>1.408688320322375</v>
+        <v>1.45349885894776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6437142107201808</v>
+        <v>0.6534258227541923</v>
       </c>
       <c r="C15" t="n">
-        <v>298.639543595384</v>
+        <v>148.1397264080906</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9447400111604916</v>
+        <v>-1.304128594817031</v>
       </c>
       <c r="E15" t="n">
-        <v>20.74434416298764</v>
+        <v>214.8618690542625</v>
       </c>
       <c r="F15" t="n">
-        <v>1.466187057361305</v>
+        <v>1.237582999451599</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6354594809204306</v>
+        <v>0.6434252084718469</v>
       </c>
       <c r="C16" t="n">
-        <v>295.0874893193567</v>
+        <v>298.8473654951923</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9190598989344974</v>
+        <v>1.817526299524369</v>
       </c>
       <c r="E16" t="n">
-        <v>26.83034854964772</v>
+        <v>72.854861568385</v>
       </c>
       <c r="F16" t="n">
-        <v>1.477731149387791</v>
+        <v>1.39248894530025</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6341481050728465</v>
+        <v>0.6371023227292114</v>
       </c>
       <c r="C17" t="n">
-        <v>295.7292226197973</v>
+        <v>297.6698257516178</v>
       </c>
       <c r="D17" t="n">
-        <v>2.452980422469834</v>
+        <v>1.057157289384173</v>
       </c>
       <c r="E17" t="n">
-        <v>28.37744621967184</v>
+        <v>25.4249172940773</v>
       </c>
       <c r="F17" t="n">
-        <v>1.546278134268433</v>
+        <v>1.519022919932772</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6317640286340431</v>
+        <v>0.6188514040116111</v>
       </c>
       <c r="C18" t="n">
-        <v>310.808431731881</v>
+        <v>693.3185848919213</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9355925039637851</v>
+        <v>0.2963578399472082</v>
       </c>
       <c r="E18" t="n">
-        <v>23.43268570917473</v>
+        <v>53.36787063813469</v>
       </c>
       <c r="F18" t="n">
-        <v>1.483210629048443</v>
+        <v>1.105928206957297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6289754391471725</v>
+        <v>0.6150800780142605</v>
       </c>
       <c r="C19" t="n">
-        <v>309.3771444327504</v>
+        <v>98.34980679830446</v>
       </c>
       <c r="D19" t="n">
-        <v>2.432347559536837</v>
+        <v>-4.134591060705609</v>
       </c>
       <c r="E19" t="n">
-        <v>22.68042535235045</v>
+        <v>264.4777765899587</v>
       </c>
       <c r="F19" t="n">
-        <v>1.570251241344081</v>
+        <v>1.285853416640701</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6261030884951813</v>
+        <v>0.6024665823886504</v>
       </c>
       <c r="C20" t="n">
-        <v>304.4641110415046</v>
+        <v>294.8586293524943</v>
       </c>
       <c r="D20" t="n">
-        <v>2.004258077067525</v>
+        <v>1.017594679533433</v>
       </c>
       <c r="E20" t="n">
-        <v>21.69433529619023</v>
+        <v>24.07544940995522</v>
       </c>
       <c r="F20" t="n">
-        <v>1.578073759527608</v>
+        <v>1.625922105036925</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0.610231352257148</v>
+        <v>0.6003526421725851</v>
       </c>
       <c r="C21" t="n">
-        <v>298.2905637623441</v>
+        <v>111.261564663808</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2578113095312693</v>
+        <v>-4.66895264708082</v>
       </c>
       <c r="E21" t="n">
-        <v>22.03378614662955</v>
+        <v>90.77888032351494</v>
       </c>
       <c r="F21" t="n">
-        <v>1.572518392332632</v>
+        <v>1.518341090564572</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.602044196202244</v>
+        <v>0.5969721259416867</v>
       </c>
       <c r="C22" t="n">
-        <v>308.3433094770903</v>
+        <v>574.4489448180526</v>
       </c>
       <c r="D22" t="n">
-        <v>2.13246828874722</v>
+        <v>-4.028259591307431</v>
       </c>
       <c r="E22" t="n">
-        <v>25.48898931852543</v>
+        <v>25.71262264960236</v>
       </c>
       <c r="F22" t="n">
-        <v>1.640947836351959</v>
+        <v>1.241483062891067</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5838999895069353</v>
+        <v>0.593380209679123</v>
       </c>
       <c r="C23" t="n">
-        <v>305.0873416141987</v>
+        <v>284.0573262662273</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.316819713272299</v>
+        <v>-3.752398932227264</v>
       </c>
       <c r="E23" t="n">
-        <v>21.36818197841442</v>
+        <v>40.0852712468682</v>
       </c>
       <c r="F23" t="n">
-        <v>1.541204611661906</v>
+        <v>1.51742804677441</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5783753894988816</v>
+        <v>0.5927535583094286</v>
       </c>
       <c r="C24" t="n">
-        <v>312.0718854598327</v>
+        <v>467.8308392590725</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.289851683230514</v>
+        <v>-1.379503269309615</v>
       </c>
       <c r="E24" t="n">
-        <v>21.25871570015576</v>
+        <v>167.6151764461762</v>
       </c>
       <c r="F24" t="n">
-        <v>1.571302144423073</v>
+        <v>1.121623555383844</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>0.569109812008142</v>
+        <v>0.584919011724125</v>
       </c>
       <c r="C25" t="n">
-        <v>297.0098968272213</v>
+        <v>298.519322110889</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.887627007135892</v>
+        <v>1.485581867229229</v>
       </c>
       <c r="E25" t="n">
-        <v>20.33183633906398</v>
+        <v>23.51910118789069</v>
       </c>
       <c r="F25" t="n">
-        <v>1.646073245929267</v>
+        <v>1.697108849494138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5681860843832542</v>
+        <v>0.5845892224466332</v>
       </c>
       <c r="C26" t="n">
-        <v>307.6394219691855</v>
+        <v>41.46318513187337</v>
       </c>
       <c r="D26" t="n">
-        <v>1.385011725198474</v>
+        <v>-2.729184737412661</v>
       </c>
       <c r="E26" t="n">
-        <v>23.80518692872603</v>
+        <v>150.6934757422758</v>
       </c>
       <c r="F26" t="n">
-        <v>1.750352780642065</v>
+        <v>1.557605251111911</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5679868964827813</v>
+        <v>0.5750164131555342</v>
       </c>
       <c r="C27" t="n">
-        <v>300.4680878057346</v>
+        <v>42.17666522645989</v>
       </c>
       <c r="D27" t="n">
-        <v>2.667661885212466</v>
+        <v>-3.180362892166409</v>
       </c>
       <c r="E27" t="n">
-        <v>20.55901896971056</v>
+        <v>152.4948993582539</v>
       </c>
       <c r="F27" t="n">
-        <v>1.794316510175666</v>
+        <v>1.578165726816941</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5662201814702734</v>
+        <v>0.5716613468888041</v>
       </c>
       <c r="C28" t="n">
-        <v>308.017330475992</v>
+        <v>251.6051738729022</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.528544632237911</v>
+        <v>2.986266582441301</v>
       </c>
       <c r="E28" t="n">
-        <v>21.14778335587507</v>
+        <v>164.1519602132661</v>
       </c>
       <c r="F28" t="n">
-        <v>1.678216839408061</v>
+        <v>1.434083911488127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5659999852795818</v>
+        <v>0.5651837130648545</v>
       </c>
       <c r="C29" t="n">
-        <v>307.5568020386919</v>
+        <v>295.7845436816572</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.662363093238419</v>
+        <v>-1.304195027161146</v>
       </c>
       <c r="E29" t="n">
-        <v>23.41198410563485</v>
+        <v>21.68472921039493</v>
       </c>
       <c r="F29" t="n">
-        <v>1.602814800954345</v>
+        <v>1.695639153340105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5637856884191076</v>
+        <v>0.5621349160653748</v>
       </c>
       <c r="C30" t="n">
-        <v>294.0890728522178</v>
+        <v>658.0405651834484</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.8091791024671648</v>
+        <v>3.247024395613991</v>
       </c>
       <c r="E30" t="n">
-        <v>24.27812578336453</v>
+        <v>114.308143440797</v>
       </c>
       <c r="F30" t="n">
-        <v>1.707332608560978</v>
+        <v>1.207686625054746</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5512680750202188</v>
+        <v>0.5546907854712829</v>
       </c>
       <c r="C31" t="n">
-        <v>300.2215184999381</v>
+        <v>207.7300888247662</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7577456212805824</v>
+        <v>-4.565196000399766</v>
       </c>
       <c r="E31" t="n">
-        <v>20.52789538270131</v>
+        <v>344.3552345971507</v>
       </c>
       <c r="F31" t="n">
-        <v>1.817642096043345</v>
+        <v>1.211728820393958</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5333563135032081</v>
+        <v>0.5526002108373538</v>
       </c>
       <c r="C32" t="n">
-        <v>305.3223207291107</v>
+        <v>506.6641223483304</v>
       </c>
       <c r="D32" t="n">
-        <v>1.432790950742636</v>
+        <v>-2.916663158211203</v>
       </c>
       <c r="E32" t="n">
-        <v>24.9095834360692</v>
+        <v>113.4782422491947</v>
       </c>
       <c r="F32" t="n">
-        <v>1.901331372621923</v>
+        <v>1.263572164173021</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5295152585108172</v>
+        <v>0.5496437965016845</v>
       </c>
       <c r="C33" t="n">
-        <v>297.2643779153165</v>
+        <v>506.7747660528423</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.279045525351143</v>
+        <v>-3.725399121397884</v>
       </c>
       <c r="E33" t="n">
-        <v>30.25315039921738</v>
+        <v>113.2145212011869</v>
       </c>
       <c r="F33" t="n">
-        <v>1.754030765424358</v>
+        <v>1.257823955267118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5115108200405551</v>
+        <v>0.5489872909988796</v>
       </c>
       <c r="C34" t="n">
-        <v>293.8138988885133</v>
+        <v>16.52991998944711</v>
       </c>
       <c r="D34" t="n">
-        <v>1.819587019703263</v>
+        <v>-0.5481618988803598</v>
       </c>
       <c r="E34" t="n">
-        <v>31.2775840920558</v>
+        <v>81.55554499655497</v>
       </c>
       <c r="F34" t="n">
-        <v>2.016252283531839</v>
+        <v>1.716698798758668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5075043338091483</v>
+        <v>0.5486784293754905</v>
       </c>
       <c r="C35" t="n">
-        <v>300.7910957879076</v>
+        <v>282.2902402353356</v>
       </c>
       <c r="D35" t="n">
-        <v>1.054759731608778</v>
+        <v>0.3377283055443261</v>
       </c>
       <c r="E35" t="n">
-        <v>21.49765583518831</v>
+        <v>79.60072015037819</v>
       </c>
       <c r="F35" t="n">
-        <v>2.107636859184514</v>
+        <v>1.626013104630413</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4951513787548145</v>
+        <v>0.5481143116233365</v>
       </c>
       <c r="C36" t="n">
-        <v>292.4590243118962</v>
+        <v>57.71328969382172</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.98611756582934</v>
+        <v>3.279226404109767</v>
       </c>
       <c r="E36" t="n">
-        <v>26.08935778138144</v>
+        <v>376.1897721572124</v>
       </c>
       <c r="F36" t="n">
-        <v>1.886272200624698</v>
+        <v>1.416722414464627</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4810028101756302</v>
+        <v>0.5358991348836826</v>
       </c>
       <c r="C37" t="n">
-        <v>307.1668625096212</v>
+        <v>295.8731270005551</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.653169183032906</v>
+        <v>0.5965812209817916</v>
       </c>
       <c r="E37" t="n">
-        <v>28.87115889746759</v>
+        <v>22.86431132715959</v>
       </c>
       <c r="F37" t="n">
-        <v>2.032051040410405</v>
+        <v>1.87321653321321</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4765610599712621</v>
+        <v>0.5229014809699739</v>
       </c>
       <c r="C38" t="n">
-        <v>293.3221187168165</v>
+        <v>221.0787422626066</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7428471011382145</v>
+        <v>0.5898797361172399</v>
       </c>
       <c r="E38" t="n">
-        <v>27.87925742909626</v>
+        <v>229.5250567444926</v>
       </c>
       <c r="F38" t="n">
-        <v>2.225874595710225</v>
+        <v>1.473786501781425</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4655053878640528</v>
+        <v>0.5197039894617868</v>
       </c>
       <c r="C39" t="n">
-        <v>298.8499275871679</v>
+        <v>395.6169887185357</v>
       </c>
       <c r="D39" t="n">
-        <v>2.898143033004361</v>
+        <v>-3.701775952777838</v>
       </c>
       <c r="E39" t="n">
-        <v>28.14816242549777</v>
+        <v>325.2401173353792</v>
       </c>
       <c r="F39" t="n">
-        <v>2.313619959742728</v>
+        <v>1.122002626863044</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4615645747301583</v>
+        <v>0.5147817491719318</v>
       </c>
       <c r="C40" t="n">
-        <v>306.4561578983768</v>
+        <v>272.312364147294</v>
       </c>
       <c r="D40" t="n">
-        <v>1.077870961025083</v>
+        <v>2.135562491000041</v>
       </c>
       <c r="E40" t="n">
-        <v>21.39778237543963</v>
+        <v>176.1564292985754</v>
       </c>
       <c r="F40" t="n">
-        <v>2.321791769141015</v>
+        <v>1.559256959936687</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4496268717951989</v>
+        <v>0.5130343982505901</v>
       </c>
       <c r="C41" t="n">
-        <v>297.9872708160955</v>
+        <v>149.4529572756147</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.881180614712166</v>
+        <v>-0.2102465427322091</v>
       </c>
       <c r="E41" t="n">
-        <v>26.14436405774634</v>
+        <v>214.0718330487474</v>
       </c>
       <c r="F41" t="n">
-        <v>2.270761947347065</v>
+        <v>1.590461447449055</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4385301924780879</v>
+        <v>0.5125886531608054</v>
       </c>
       <c r="C42" t="n">
-        <v>301.6699429191778</v>
+        <v>396.8293466300189</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.860370523656758</v>
+        <v>1.84277218598788</v>
       </c>
       <c r="E42" t="n">
-        <v>23.44123249119174</v>
+        <v>288.7442691894231</v>
       </c>
       <c r="F42" t="n">
-        <v>2.256403746238537</v>
+        <v>1.239686013303575</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4275326400377436</v>
+        <v>0.5121874504118025</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7571434982857</v>
+        <v>151.072052314747</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.573447447055599</v>
+        <v>2.403056927518509</v>
       </c>
       <c r="E43" t="n">
-        <v>330.4090735359789</v>
+        <v>30.40728541521194</v>
       </c>
       <c r="F43" t="n">
-        <v>1.066950935831527</v>
+        <v>2.005701265267604</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4250197803699551</v>
+        <v>0.5091742939562549</v>
       </c>
       <c r="C44" t="n">
-        <v>15.32670062904353</v>
+        <v>143.8602236491023</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.043251592085734</v>
+        <v>-2.259614747698153</v>
       </c>
       <c r="E44" t="n">
-        <v>289.5602329845994</v>
+        <v>215.9718778383262</v>
       </c>
       <c r="F44" t="n">
-        <v>2.147105288487401</v>
+        <v>1.588970006168376</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4217411595217569</v>
+        <v>0.474273264572448</v>
       </c>
       <c r="C45" t="n">
-        <v>24.6323288203139</v>
+        <v>478.6206864035851</v>
       </c>
       <c r="D45" t="n">
-        <v>1.770931156640491</v>
+        <v>1.960469836477317</v>
       </c>
       <c r="E45" t="n">
-        <v>386.6451056192115</v>
+        <v>144.539969693731</v>
       </c>
       <c r="F45" t="n">
-        <v>2.053109540865393</v>
+        <v>1.569509597320092</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4207327215230063</v>
+        <v>0.4607560193063475</v>
       </c>
       <c r="C46" t="n">
-        <v>312.2238437573059</v>
+        <v>646.2594081506122</v>
       </c>
       <c r="D46" t="n">
-        <v>3.357133795265881</v>
+        <v>-2.750131136027882</v>
       </c>
       <c r="E46" t="n">
-        <v>22.4189891668403</v>
+        <v>225.4092404006813</v>
       </c>
       <c r="F46" t="n">
-        <v>2.491402364892762</v>
+        <v>1.173962106601914</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4137844331816091</v>
+        <v>0.4607264456625741</v>
       </c>
       <c r="C47" t="n">
-        <v>296.5487060782869</v>
+        <v>191.2769439912763</v>
       </c>
       <c r="D47" t="n">
-        <v>0.05545887339630085</v>
+        <v>-5.303495302196198</v>
       </c>
       <c r="E47" t="n">
-        <v>20.11193901237408</v>
+        <v>83.63852510627088</v>
       </c>
       <c r="F47" t="n">
-        <v>2.484341844714466</v>
+        <v>1.962441955632218</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3847473541016796</v>
+        <v>0.455201788678543</v>
       </c>
       <c r="C48" t="n">
-        <v>695.331751056518</v>
+        <v>300.6475750091512</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.160806727819475</v>
+        <v>1.073398226306477</v>
       </c>
       <c r="E48" t="n">
-        <v>331.0215933422896</v>
+        <v>73.9646554376742</v>
       </c>
       <c r="F48" t="n">
-        <v>1.216315590610176</v>
+        <v>2.137596804939299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3615136510691287</v>
+        <v>0.4547682825881981</v>
       </c>
       <c r="C49" t="n">
-        <v>261.4492421815257</v>
+        <v>296.8118648340165</v>
       </c>
       <c r="D49" t="n">
-        <v>-5.298416999797965</v>
+        <v>1.50172178361751</v>
       </c>
       <c r="E49" t="n">
-        <v>77.91745155476474</v>
+        <v>74.24800646789024</v>
       </c>
       <c r="F49" t="n">
-        <v>2.457282285822254</v>
+        <v>2.15059305441448</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3570236792452163</v>
+        <v>0.442250758036292</v>
       </c>
       <c r="C50" t="n">
-        <v>696.9068333594371</v>
+        <v>547.8249053237821</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.500171347749601</v>
+        <v>2.627403921524611</v>
       </c>
       <c r="E50" t="n">
-        <v>328.0832150381682</v>
+        <v>214.7162181149428</v>
       </c>
       <c r="F50" t="n">
-        <v>1.306602651342203</v>
+        <v>1.442849532018184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2967763716644939</v>
+        <v>0.4359509764917776</v>
       </c>
       <c r="C51" t="n">
-        <v>687.04959284521</v>
+        <v>98.37525201733899</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.06624404367035</v>
+        <v>-2.759684401481371</v>
       </c>
       <c r="E51" t="n">
-        <v>327.3383068665119</v>
+        <v>266.8654237433367</v>
       </c>
       <c r="F51" t="n">
-        <v>1.669838998193243</v>
+        <v>1.924072968021123</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2665223405535821</v>
+        <v>0.4353730538253333</v>
       </c>
       <c r="C52" t="n">
-        <v>440.1361235322254</v>
+        <v>597.2037387865669</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.490979170587627</v>
+        <v>1.546605494526264</v>
       </c>
       <c r="E52" t="n">
-        <v>384.4559658688092</v>
+        <v>362.8323303913738</v>
       </c>
       <c r="F52" t="n">
-        <v>2.207027522455001</v>
+        <v>1.140084755963097</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4332961239744886</v>
+      </c>
+      <c r="C53" t="n">
+        <v>146.1373876645096</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2.342264109892062</v>
+      </c>
+      <c r="E53" t="n">
+        <v>217.6845821724613</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.962575442651247</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4320487447971795</v>
+      </c>
+      <c r="C54" t="n">
+        <v>494.173746010558</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-2.041877522570545</v>
+      </c>
+      <c r="E54" t="n">
+        <v>121.9788332666587</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.733775068062339</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4306482883725287</v>
+      </c>
+      <c r="C55" t="n">
+        <v>453.939920375108</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.001661225509652198</v>
+      </c>
+      <c r="E55" t="n">
+        <v>348.4359637120438</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.310680311663215</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4277432485987486</v>
+      </c>
+      <c r="C56" t="n">
+        <v>520.7230543887438</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.354991495839448</v>
+      </c>
+      <c r="E56" t="n">
+        <v>80.95263949680529</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.111683546063969</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4275326400377436</v>
+      </c>
+      <c r="C57" t="n">
+        <v>696.7571434982857</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-2.573447447055599</v>
+      </c>
+      <c r="E57" t="n">
+        <v>330.4090735359789</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.066950935831527</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4266658882393146</v>
+      </c>
+      <c r="C58" t="n">
+        <v>455.0159475394992</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-4.373013079487047</v>
+      </c>
+      <c r="E58" t="n">
+        <v>278.186728375178</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.385265251148554</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.426408630632048</v>
+      </c>
+      <c r="C59" t="n">
+        <v>300.7742289213487</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-1.737503245178098</v>
+      </c>
+      <c r="E59" t="n">
+        <v>333.4743748858961</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.536933468840853</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4261400329876084</v>
+      </c>
+      <c r="C60" t="n">
+        <v>102.2619546443567</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.9293625226110676</v>
+      </c>
+      <c r="E60" t="n">
+        <v>357.859262400596</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.850746139482605</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4217411595217569</v>
+      </c>
+      <c r="C61" t="n">
+        <v>24.6323288203139</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.770931156640491</v>
+      </c>
+      <c r="E61" t="n">
+        <v>386.6451056192115</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.053109540865393</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4209360082858955</v>
+      </c>
+      <c r="C62" t="n">
+        <v>630.3093329987593</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.430024960732514</v>
+      </c>
+      <c r="E62" t="n">
+        <v>171.7016485852035</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.467292313866134</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4152172743410059</v>
+      </c>
+      <c r="C63" t="n">
+        <v>283.7695572191623</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.6506493939697879</v>
+      </c>
+      <c r="E63" t="n">
+        <v>179.293915473252</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.027829250595139</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.412511570347465</v>
+      </c>
+      <c r="C64" t="n">
+        <v>234.1642753653183</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.2220327456721458</v>
+      </c>
+      <c r="E64" t="n">
+        <v>172.1919415571487</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.127332199871907</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4099855268490844</v>
+      </c>
+      <c r="C65" t="n">
+        <v>258.1684813373604</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.9375138755670696</v>
+      </c>
+      <c r="E65" t="n">
+        <v>295.4377802102941</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.781396046688979</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4094706861774388</v>
+      </c>
+      <c r="C66" t="n">
+        <v>298.6221153087558</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7460307666820496</v>
+      </c>
+      <c r="E66" t="n">
+        <v>73.38421254482634</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.314307069172029</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4063163801530598</v>
+      </c>
+      <c r="C67" t="n">
+        <v>217.9488449831371</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1905445275642119</v>
+      </c>
+      <c r="E67" t="n">
+        <v>359.2957115944113</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.756179488425622</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4049777851569342</v>
+      </c>
+      <c r="C68" t="n">
+        <v>134.7440785776236</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-3.054058349548783</v>
+      </c>
+      <c r="E68" t="n">
+        <v>325.345434707741</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.972057815390071</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3912888197660679</v>
+      </c>
+      <c r="C69" t="n">
+        <v>396.0701216407709</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3.641817721387918</v>
+      </c>
+      <c r="E69" t="n">
+        <v>326.0640386292106</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.541952918298795</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.3898789361688741</v>
+      </c>
+      <c r="C70" t="n">
+        <v>120.1031022476145</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.706068095747219</v>
+      </c>
+      <c r="E70" t="n">
+        <v>213.5799174903832</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.232689384729662</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3863271943763569</v>
+      </c>
+      <c r="C71" t="n">
+        <v>296.8293591223969</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-2.520830760774097</v>
+      </c>
+      <c r="E71" t="n">
+        <v>77.60520169717233</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.371958508529774</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3825162441559464</v>
+      </c>
+      <c r="C72" t="n">
+        <v>239.3233390314864</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-1.136867441377348</v>
+      </c>
+      <c r="E72" t="n">
+        <v>178.3939973015651</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.231245418737253</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3749654502589687</v>
+      </c>
+      <c r="C73" t="n">
+        <v>296.9203518035824</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.4068475859592935</v>
+      </c>
+      <c r="E73" t="n">
+        <v>70.17252414007103</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.466859674454704</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.373745629642844</v>
+      </c>
+      <c r="C74" t="n">
+        <v>289.8199355949585</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-5.374276846297189</v>
+      </c>
+      <c r="E74" t="n">
+        <v>175.097238169259</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.181805692705913</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3724947827663547</v>
+      </c>
+      <c r="C75" t="n">
+        <v>149.0845001577643</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-3.515078631109393</v>
+      </c>
+      <c r="E75" t="n">
+        <v>329.4794195258347</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.114334470682292</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3656267817036393</v>
+      </c>
+      <c r="C76" t="n">
+        <v>382.0925233325599</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-1.971345346990131</v>
+      </c>
+      <c r="E76" t="n">
+        <v>376.1541996214524</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.632478748133767</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3615136510691287</v>
+      </c>
+      <c r="C77" t="n">
+        <v>261.4492421815257</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-5.298416999797965</v>
+      </c>
+      <c r="E77" t="n">
+        <v>77.91745155476474</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.457282285822254</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3589955892129462</v>
+      </c>
+      <c r="C78" t="n">
+        <v>640.3263958980904</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9661508458211854</v>
+      </c>
+      <c r="E78" t="n">
+        <v>222.2123521820519</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.692647819034277</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3579091388098519</v>
+      </c>
+      <c r="C79" t="n">
+        <v>120.2335359212354</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.4731533341282823</v>
+      </c>
+      <c r="E79" t="n">
+        <v>210.8418929988827</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.361329578279428</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3519277702796373</v>
+      </c>
+      <c r="C80" t="n">
+        <v>93.55420413232265</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-1.145446579620788</v>
+      </c>
+      <c r="E80" t="n">
+        <v>206.3803010132012</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.402564775586727</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.351276328417881</v>
+      </c>
+      <c r="C81" t="n">
+        <v>305.7437820913832</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-3.921122413174916</v>
+      </c>
+      <c r="E81" t="n">
+        <v>178.4337991528591</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.277011996138237</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3506950874662538</v>
+      </c>
+      <c r="C82" t="n">
+        <v>373.8367490642901</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.772641730440293</v>
+      </c>
+      <c r="E82" t="n">
+        <v>320.199859793951</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.96482955810646</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3494435390923448</v>
+      </c>
+      <c r="C83" t="n">
+        <v>114.6293957395124</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-3.661622911810703</v>
+      </c>
+      <c r="E83" t="n">
+        <v>275.5407435784261</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.312217791271809</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3428937652071012</v>
+      </c>
+      <c r="C84" t="n">
+        <v>307.9762815894509</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6095467607179783</v>
+      </c>
+      <c r="E84" t="n">
+        <v>374.0328865695892</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.013404909992945</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3404592164126325</v>
+      </c>
+      <c r="C85" t="n">
+        <v>561.5275745213311</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-3.051797815653174</v>
+      </c>
+      <c r="E85" t="n">
+        <v>285.4829263732846</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.665854895375225</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.338652892574328</v>
+      </c>
+      <c r="C86" t="n">
+        <v>403.2399790637652</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-5.186523732933765</v>
+      </c>
+      <c r="E86" t="n">
+        <v>338.6358187782</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.810510524472311</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3380805653548411</v>
+      </c>
+      <c r="C87" t="n">
+        <v>281.4124066190132</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.000186497818165</v>
+      </c>
+      <c r="E87" t="n">
+        <v>310.6769705433649</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.179351121642874</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3365141150382219</v>
+      </c>
+      <c r="C88" t="n">
+        <v>696.0244161273212</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3.197425205644914</v>
+      </c>
+      <c r="E88" t="n">
+        <v>255.0789560635854</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.554756566227561</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3317035766961841</v>
+      </c>
+      <c r="C89" t="n">
+        <v>345.0996978982733</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.6953364268971072</v>
+      </c>
+      <c r="E89" t="n">
+        <v>266.098405674494</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.201551192034178</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3308257206108011</v>
+      </c>
+      <c r="C90" t="n">
+        <v>485.477667439412</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-4.439377824815091</v>
+      </c>
+      <c r="E90" t="n">
+        <v>226.5365205958813</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.049185760349729</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3268070651858349</v>
+      </c>
+      <c r="C91" t="n">
+        <v>171.4993811987376</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-1.476983298891454</v>
+      </c>
+      <c r="E91" t="n">
+        <v>229.0416909572583</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.423774031139016</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3236135705300559</v>
+      </c>
+      <c r="C92" t="n">
+        <v>135.4085645331453</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.54683865158696</v>
+      </c>
+      <c r="E92" t="n">
+        <v>211.7262900589188</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.479377221677203</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.3123523284574165</v>
+      </c>
+      <c r="C93" t="n">
+        <v>667.8123586471545</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.395667461449437</v>
+      </c>
+      <c r="E93" t="n">
+        <v>399.8931152087222</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.504556706564467</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3082844937360139</v>
+      </c>
+      <c r="C94" t="n">
+        <v>560.292133929092</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-3.851359167674146</v>
+      </c>
+      <c r="E94" t="n">
+        <v>102.4226481801008</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.419412037735135</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.3069226498087817</v>
+      </c>
+      <c r="C95" t="n">
+        <v>288.3383515008071</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.384262864423668</v>
+      </c>
+      <c r="E95" t="n">
+        <v>278.891061875496</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.362669424612399</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3020502379023277</v>
+      </c>
+      <c r="C96" t="n">
+        <v>338.8851396589187</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.839058695772267</v>
+      </c>
+      <c r="E96" t="n">
+        <v>259.3549540651617</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.367134103926143</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3008340520240228</v>
+      </c>
+      <c r="C97" t="n">
+        <v>673.4121834707506</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.6377580371194735</v>
+      </c>
+      <c r="E97" t="n">
+        <v>246.0202988602386</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.041031672326764</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.2967763716644939</v>
+      </c>
+      <c r="C98" t="n">
+        <v>687.04959284521</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-3.06624404367035</v>
+      </c>
+      <c r="E98" t="n">
+        <v>327.3383068665119</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.669838998193243</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.2892261471792908</v>
+      </c>
+      <c r="C99" t="n">
+        <v>652.1845049041152</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.712413698474336</v>
+      </c>
+      <c r="E99" t="n">
+        <v>306.8782392264454</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.034023208504459</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.2877759839661458</v>
+      </c>
+      <c r="C100" t="n">
+        <v>690.3466857120461</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.8749487590845302</v>
+      </c>
+      <c r="E100" t="n">
+        <v>241.3549669208666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.119186634162266</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.285293397284485</v>
+      </c>
+      <c r="C101" t="n">
+        <v>561.7820817970161</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-2.047390107793843</v>
+      </c>
+      <c r="E101" t="n">
+        <v>317.769047765586</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.071196685413221</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.2655422418940788</v>
+      </c>
+      <c r="C102" t="n">
+        <v>699.3286106766379</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.2367936599392797</v>
+      </c>
+      <c r="E102" t="n">
+        <v>200.566244093558</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.328263814028619</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.2616817344156674</v>
+      </c>
+      <c r="C103" t="n">
+        <v>461.9936896658936</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-3.540243716696317</v>
+      </c>
+      <c r="E103" t="n">
+        <v>287.0089581453685</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.360496521265993</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.2446547837745987</v>
+      </c>
+      <c r="C104" t="n">
+        <v>506.9049359467237</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.3454214556793627</v>
+      </c>
+      <c r="E104" t="n">
+        <v>270.3685030421141</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.487028450131938</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.244131119427103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>382.5502133308241</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-2.608644862617006</v>
+      </c>
+      <c r="E105" t="n">
+        <v>338.1346276675494</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.484387622374171</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.2297242245937896</v>
+      </c>
+      <c r="C106" t="n">
+        <v>683.9245532710477</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.6500423991772379</v>
+      </c>
+      <c r="E106" t="n">
+        <v>394.0814712716328</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.187835039455834</v>
       </c>
     </row>
   </sheetData>
